--- a/Prediction/Disease Prediction/Diseases.xlsx
+++ b/Prediction/Disease Prediction/Diseases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -37,25 +37,13 @@
     <t>Symptom 6</t>
   </si>
   <si>
+    <t>Symptom 7</t>
+  </si>
+  <si>
+    <t>Symptom 8</t>
+  </si>
+  <si>
     <t>Malaria</t>
-  </si>
-  <si>
-    <t>Vomiting</t>
-  </si>
-  <si>
-    <t>high_fever</t>
-  </si>
-  <si>
-    <t>sweating</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>nausea</t>
-  </si>
-  <si>
-    <t>muscle_pain</t>
   </si>
   <si>
     <t>Dengue</t>
@@ -98,7 +86,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +96,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -123,15 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,21 +119,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,15 +165,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +195,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -239,21 +211,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,181 +256,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +450,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,26 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -530,15 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,157 +521,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
@@ -1052,9 +1035,10 @@
     <col min="6" max="6" width="27.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="21.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="24.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="27.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
+    <row r="1" ht="18" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,78 +1060,66 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Prediction/Disease Prediction/Diseases.xlsx
+++ b/Prediction/Disease Prediction/Diseases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="11520" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -46,34 +46,214 @@
     <t>Malaria</t>
   </si>
   <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>sweating</t>
+  </si>
+  <si>
+    <t>abdominal_pain</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>bloody_stools</t>
+  </si>
+  <si>
+    <t>muscle_pain</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>coma</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
     <t>Dengue</t>
   </si>
   <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>skin_rash</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nausea</t>
+  </si>
+  <si>
     <t>Heart Attack</t>
   </si>
   <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>back_pain</t>
+  </si>
+  <si>
+    <t>neck_pain</t>
+  </si>
+  <si>
+    <t>arm_pain</t>
+  </si>
+  <si>
+    <t>chest_pain</t>
+  </si>
+  <si>
+    <t>dizziness</t>
+  </si>
+  <si>
+    <t>low_breath</t>
+  </si>
+  <si>
     <t>Hypertension</t>
   </si>
   <si>
+    <t>urine_blood</t>
+  </si>
+  <si>
+    <t>vision_problem</t>
+  </si>
+  <si>
+    <t>low_heartbeat</t>
+  </si>
+  <si>
+    <t>confusion</t>
+  </si>
+  <si>
     <t>Migraine</t>
   </si>
   <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>constipation</t>
+  </si>
+  <si>
+    <t>stiff_neck</t>
+  </si>
+  <si>
+    <t>yawning</t>
+  </si>
+  <si>
+    <t>more_urine</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>decreased_appetite</t>
+  </si>
+  <si>
     <t>Cervical spondylosis</t>
   </si>
   <si>
+    <t>neck_stiff</t>
+  </si>
+  <si>
+    <t>shoulder_pain</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>muscle_cramps</t>
+  </si>
+  <si>
+    <t>muscle_spasm</t>
+  </si>
+  <si>
     <t>Paralysis</t>
   </si>
   <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>breath_problems</t>
+  </si>
+  <si>
+    <t>numbness</t>
+  </si>
+  <si>
     <t>Drug Reaction</t>
   </si>
   <si>
+    <t>itching</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>swelling</t>
+  </si>
+  <si>
+    <t>hives</t>
+  </si>
+  <si>
+    <t>wheezing</t>
+  </si>
+  <si>
     <t>Alcoholic hepatitis</t>
   </si>
   <si>
+    <t>weight_loss</t>
+  </si>
+  <si>
+    <t>dry_mouth</t>
+  </si>
+  <si>
+    <t>stomach_pain</t>
+  </si>
+  <si>
+    <t>bleed</t>
+  </si>
+  <si>
     <t>Pneumonia</t>
   </si>
   <si>
+    <t>cough</t>
+  </si>
+  <si>
     <t>Dimorphic hemmorhoids(piles)</t>
+  </si>
+  <si>
+    <t>anus_itching</t>
+  </si>
+  <si>
+    <t>anus_swelling</t>
+  </si>
+  <si>
+    <t>fecal_leakage</t>
+  </si>
+  <si>
+    <t>painful_bowel_moments</t>
+  </si>
+  <si>
+    <t>blood_on_tissue</t>
+  </si>
+  <si>
+    <t>anal_bleeding</t>
+  </si>
+  <si>
+    <t>stool_pressure</t>
+  </si>
+  <si>
+    <t>lump_anus</t>
   </si>
 </sst>
 </file>
@@ -86,7 +266,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +283,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12.75"/>
+      <color rgb="FF01ADB9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,12 +319,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -147,6 +340,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -158,21 +366,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +389,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -211,37 +412,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,31 +442,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,133 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +684,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,21 +733,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,138 +754,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1067,59 +1254,335 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="16.2" spans="1:12">
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>12</v>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Prediction/Disease Prediction/Diseases.xlsx
+++ b/Prediction/Disease Prediction/Diseases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9072"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,9 +262,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -283,10 +283,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.75"/>
-      <color rgb="FF01ADB9"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -296,17 +303,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,12 +328,72 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -332,40 +401,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,60 +432,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,79 +442,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,97 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +640,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,7 +649,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +669,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -680,17 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,148 +736,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1254,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="16.2" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>9</v>
       </c>

--- a/Prediction/Disease Prediction/Diseases.xlsx
+++ b/Prediction/Disease Prediction/Diseases.xlsx
@@ -290,6 +290,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -297,7 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +345,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,16 +372,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,15 +412,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,82 +430,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -442,25 +442,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,157 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,8 +639,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +665,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,34 +733,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,130 +754,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A9" sqref="A9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
